--- a/TEDS_Data.xlsx
+++ b/TEDS_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLOGDEN\Documents\TEDS\TEDS_Writer\TEDS_Writer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170CB09A-1F70-49C7-B215-C4A234358B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308EEB37-BD36-4CA0-951A-B48E5EBA8DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="15300" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
   <si>
     <t>Field</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Data Type</t>
   </si>
   <si>
-    <t>Selector</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>Direction</t>
   </si>
   <si>
-    <t>UINT</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -193,22 +187,76 @@
     <t>Case bit for transfer function</t>
   </si>
   <si>
-    <t>1 = specified; 0 = none</t>
-  </si>
-  <si>
     <t>High pass freq.</t>
   </si>
   <si>
-    <t>Low pass freq.</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>127=not specified</t>
+    <t>Calibration Frequency</t>
+  </si>
+  <si>
+    <t>Calibration Temperature</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Calibration Date</t>
+  </si>
+  <si>
+    <t>Calibration Initials</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Calibration Period</t>
+  </si>
+  <si>
+    <t>Measurement Point ID</t>
+  </si>
+  <si>
+    <t>normally 3</t>
+  </si>
+  <si>
+    <t>Extended End</t>
+  </si>
+  <si>
+    <t>1=remaining bits used as user text data</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>3826</t>
+  </si>
+  <si>
+    <t>days since 01/01/1998</t>
+  </si>
+  <si>
+    <t>BUR</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>Selector 1</t>
+  </si>
+  <si>
+    <t>Selector 2</t>
+  </si>
+  <si>
+    <t>0 = none</t>
   </si>
 </sst>
 </file>
@@ -1083,19 +1131,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="10.7109375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -1132,10 +1182,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
@@ -1153,10 +1203,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1171,10 +1221,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1189,10 +1239,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1207,231 +1257,355 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/TEDS_Data.xlsx
+++ b/TEDS_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLOGDEN\Documents\TEDS\TEDS_Writer\TEDS_Writer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308EEB37-BD36-4CA0-951A-B48E5EBA8DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3DDF9B-5C44-4CC0-A751-12AF4E529FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="15300" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="0" windowWidth="15300" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEDS_Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
   <si>
     <t>Field</t>
   </si>
@@ -160,9 +160,6 @@
     <t>70</t>
   </si>
   <si>
-    <t>26450</t>
-  </si>
-  <si>
     <t>Direction</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Weight of sensor</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>Polarity</t>
   </si>
   <si>
@@ -232,12 +226,6 @@
     <t>°C</t>
   </si>
   <si>
-    <t>3826</t>
-  </si>
-  <si>
-    <t>days since 01/01/1998</t>
-  </si>
-  <si>
     <t>BUR</t>
   </si>
   <si>
@@ -247,9 +235,6 @@
     <t>365</t>
   </si>
   <si>
-    <t>158</t>
-  </si>
-  <si>
     <t>Selector 1</t>
   </si>
   <si>
@@ -257,6 +242,45 @@
   </si>
   <si>
     <t>0 = none</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>2021-07-08</t>
+  </si>
+  <si>
+    <t>5E-7 to 172, ±0.015%</t>
+  </si>
+  <si>
+    <t>0.005 to 13k, ±3%</t>
+  </si>
+  <si>
+    <t>0.1 to 8114, ±10%</t>
+  </si>
+  <si>
+    <t>0.35 to 2.18k, ±1.75%</t>
+  </si>
+  <si>
+    <t>ConRes</t>
+  </si>
+  <si>
+    <t>15 to 30, step 0.5</t>
+  </si>
+  <si>
+    <t>0.001395</t>
+  </si>
+  <si>
+    <t>0.295</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>80.3</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1158,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,7 +1290,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -1355,12 +1379,14 @@
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>35</v>
@@ -1368,17 +1394,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>40</v>
@@ -1386,38 +1414,40 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>41</v>
@@ -1425,12 +1455,12 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1440,18 +1470,18 @@
         <v>23</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" t="s">
-        <v>53</v>
+      <c r="G15" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1461,23 +1491,25 @@
         <v>23</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" t="s">
-        <v>78</v>
+      <c r="G16" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>40</v>
@@ -1485,82 +1517,82 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1568,35 +1600,38 @@
         <v>17</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1605,7 +1640,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/TEDS_Data.xlsx
+++ b/TEDS_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLOGDEN\Documents\TEDS\TEDS_Writer\TEDS_Writer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3DDF9B-5C44-4CC0-A751-12AF4E529FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63583BD-257B-4029-A0FD-5CF583F225FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="0" windowWidth="15300" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="1605" windowWidth="18210" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEDS_Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="97">
   <si>
     <t>Field</t>
   </si>
@@ -43,9 +43,6 @@
     <t>17-16381</t>
   </si>
   <si>
-    <t>Manufacturer IDs are assigned by IEEE</t>
-  </si>
-  <si>
     <t>Model Number</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>gram</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>0 = X; 1 = Y; 2 = Z; 3 = not specified</t>
   </si>
   <si>
-    <t>Weight of sensor</t>
-  </si>
-  <si>
     <t>Polarity</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>°C</t>
   </si>
   <si>
-    <t>BUR</t>
-  </si>
-  <si>
     <t>days</t>
   </si>
   <si>
@@ -247,21 +235,12 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>2021-07-08</t>
-  </si>
-  <si>
     <t>5E-7 to 172, ±0.015%</t>
   </si>
   <si>
-    <t>0.005 to 13k, ±3%</t>
-  </si>
-  <si>
     <t>0.1 to 8114, ±10%</t>
   </si>
   <si>
-    <t>0.35 to 2.18k, ±1.75%</t>
-  </si>
-  <si>
     <t>ConRes</t>
   </si>
   <si>
@@ -277,10 +256,61 @@
     <t>34</t>
   </si>
   <si>
-    <t>80.3</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t xml:space="preserve">YYYY-MM-DD </t>
+  </si>
+  <si>
+    <t>Stiffness of transducer</t>
+  </si>
+  <si>
+    <t>1E6 to 8.1E10, ±10%</t>
+  </si>
+  <si>
+    <t>N/m</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Manufacturer IDs are assigned by IEEE (67=MSC Automotive Ltd)</t>
+  </si>
+  <si>
+    <t>Transducer Weight</t>
+  </si>
+  <si>
+    <t>Mass below gage</t>
+  </si>
+  <si>
+    <t>0.005 to 13000, ±3%</t>
+  </si>
+  <si>
+    <t>0.35 to 2180, ±1.75%</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>0-2047</t>
+  </si>
+  <si>
+    <t>0-4095</t>
+  </si>
+  <si>
+    <t>3 characters long</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>HE</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,13 +1213,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -1206,441 +1236,493 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="3" t="s">
-        <v>48</v>
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>79</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>67</v>
+        <v>22</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F22" s="1"/>
+      <c r="G22" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="3" t="s">
-        <v>66</v>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/TEDS_Data.xlsx
+++ b/TEDS_Data.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLOGDEN\Documents\TEDS\TEDS_Writer\TEDS_Writer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63583BD-257B-4029-A0FD-5CF583F225FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE10E79-BE81-411B-83EF-EAE0C2FB3DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1605" windowWidth="18210" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEDS_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Bridge Template" sheetId="2" r:id="rId2"/>
+    <sheet name="Force Sensor Template" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="137">
   <si>
     <t>Field</t>
   </si>
@@ -307,10 +309,130 @@
     <t>4</t>
   </si>
   <si>
-    <t>2021-07-12</t>
-  </si>
-  <si>
-    <t>HE</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>This sheet is set up for Bridge Sensor</t>
+  </si>
+  <si>
+    <t>Physical Measurand</t>
+  </si>
+  <si>
+    <t>Refer to table to the right</t>
+  </si>
+  <si>
+    <t>0-45</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Electrical Value Precision</t>
+  </si>
+  <si>
+    <t>Minimum physical value</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Maximum physical value</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>V/V</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>Minimum electrical output</t>
+  </si>
+  <si>
+    <t>Maximum electrical output</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2=full precision</t>
+  </si>
+  <si>
+    <t>Bridge Type</t>
+  </si>
+  <si>
+    <t>0=quarter; 1=half; 2=full</t>
+  </si>
+  <si>
+    <t>Bridge Element Impedance</t>
+  </si>
+  <si>
+    <t>1 to 26200, step 0.1</t>
+  </si>
+  <si>
+    <t>Ohms</t>
+  </si>
+  <si>
+    <t>Response time</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>Excitation level, nominal</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0.1 to 51.1, step 0.1</t>
+  </si>
+  <si>
+    <t>Volts</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Excitation level, min</t>
+  </si>
+  <si>
+    <t>Excitation level, max</t>
+  </si>
+  <si>
+    <t>HEE</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>1E-6 to 7.912, ±15%</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>Nominal Excitation level</t>
+  </si>
+  <si>
+    <t>Minimum Excitation level</t>
+  </si>
+  <si>
+    <t>Maximum Excitation level</t>
   </si>
 </sst>
 </file>
@@ -459,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +764,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +949,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -830,6 +958,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -886,6 +1020,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>191221</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C866E672-EEF9-4B85-99DD-C70C0CCFF929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="723900"/>
+          <a:ext cx="5163271" cy="1981477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1188,22 +1371,21 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="10.7109375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1215,7 +1397,7 @@
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1226,7 +1408,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
@@ -1238,8 +1420,8 @@
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>83</v>
+      <c r="E2" s="10">
+        <v>67</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
@@ -1247,7 +1429,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
@@ -1259,13 +1441,14 @@
       <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>43</v>
+      <c r="E3" s="11">
+        <v>70</v>
       </c>
       <c r="F3" s="1"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1">
@@ -1277,13 +1460,14 @@
       <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1">
@@ -1295,13 +1479,14 @@
       <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
+      <c r="E5" s="11">
+        <v>2</v>
       </c>
       <c r="F5" s="1"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
@@ -1313,13 +1498,14 @@
       <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
+      <c r="E6" s="11">
+        <v>514</v>
       </c>
       <c r="F6" s="1"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1331,8 +1517,8 @@
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
+      <c r="E7" s="11">
+        <v>0</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="3" t="s">
@@ -1340,7 +1526,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1352,139 +1538,133 @@
       <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
+      <c r="E8" s="11">
+        <v>33</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+      <c r="A9" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
+      <c r="E9" s="11">
+        <v>5</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>71</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>75</v>
+        <v>104</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>87</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>35</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>82</v>
+        <v>104</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>108</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>77</v>
+        <v>104</v>
+      </c>
+      <c r="E14" s="11">
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
+      <c r="A15" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -1495,118 +1675,116 @@
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
+      <c r="E15" s="11">
+        <v>2</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="11">
+        <v>120</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>49</v>
+      <c r="E17" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>123</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
+      </c>
+      <c r="E18" s="11">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="E19" s="11">
+        <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
+        <v>123</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>90</v>
+      <c r="E20" s="11">
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1616,8 +1794,8 @@
       <c r="D21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>95</v>
+      <c r="E21" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="3" t="s">
@@ -1625,7 +1803,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1637,8 +1815,8 @@
       <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>96</v>
+      <c r="E22" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="3" t="s">
@@ -1646,7 +1824,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1658,15 +1836,16 @@
       <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>66</v>
+      <c r="E23" s="11">
+        <v>365</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1678,13 +1857,14 @@
       <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>94</v>
+      <c r="E24" s="11">
+        <v>4</v>
       </c>
       <c r="F24" s="1"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1696,8 +1876,8 @@
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>45</v>
+      <c r="E25" s="11">
+        <v>3</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="3" t="s">
@@ -1705,7 +1885,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1717,8 +1897,8 @@
       <c r="D26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>25</v>
+      <c r="E26" s="11">
+        <v>1</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="3" t="s">
@@ -1730,4 +1910,1110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517624FE-EBA0-43BD-BB98-654E0F158BD4}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="A1:G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA685F0-4632-4F34-8AD1-C46E52EA16CC}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TEDS_Data.xlsx
+++ b/TEDS_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLOGDEN\Documents\TEDS\TEDS_Writer\TEDS_Writer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE10E79-BE81-411B-83EF-EAE0C2FB3DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0657C073-5372-44CA-A886-EF03C1B7ECDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEDS_Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="138">
   <si>
     <t>Field</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>Maximum Excitation level</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -1368,15 +1371,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
@@ -1384,7 +1387,7 @@
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1420,7 +1423,7 @@
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>67</v>
       </c>
       <c r="F2" s="1"/>
@@ -1428,7 +1431,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1447,7 +1450,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1461,12 +1464,12 @@
         <v>36</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1485,7 +1488,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1504,7 +1507,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>67</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>97</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>102</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>106</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>101</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>110</v>
       </c>
@@ -1643,7 +1646,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>111</v>
       </c>
@@ -1662,7 +1665,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>114</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>116</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>119</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>134</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>135</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>136</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>57</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
@@ -1844,7 +1847,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
@@ -1863,7 +1866,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>68</v>
       </c>
@@ -1884,7 +1887,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>62</v>
       </c>
@@ -1905,6 +1908,9 @@
         <v>63</v>
       </c>
     </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1916,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517624FE-EBA0-43BD-BB98-654E0F158BD4}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="A1:G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TEDS_Data.xlsx
+++ b/TEDS_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLOGDEN\Documents\TEDS\TEDS_Writer\TEDS_Writer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0657C073-5372-44CA-A886-EF03C1B7ECDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B781535-73D9-42F5-831C-18999AAC70AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="1590" windowWidth="22665" windowHeight="12315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEDS_Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="134">
   <si>
     <t>Field</t>
   </si>
@@ -424,18 +424,6 @@
   </si>
   <si>
     <t>0.0001</t>
-  </si>
-  <si>
-    <t>Nominal Excitation level</t>
-  </si>
-  <si>
-    <t>Minimum Excitation level</t>
-  </si>
-  <si>
-    <t>Maximum Excitation level</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
 </sst>
 </file>
@@ -584,7 +572,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,7 +760,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +946,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -964,9 +958,17 @@
     <xf numFmtId="49" fontId="17" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1374,7 +1376,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1402,7 @@
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1423,8 +1425,8 @@
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11">
-        <v>67</v>
+      <c r="E2" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
@@ -1444,8 +1446,8 @@
       <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11">
-        <v>70</v>
+      <c r="E3" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
@@ -1463,8 +1465,8 @@
       <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>137</v>
+      <c r="E4" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
@@ -1482,8 +1484,8 @@
       <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="11">
-        <v>2</v>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
@@ -1501,8 +1503,8 @@
       <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="11">
-        <v>514</v>
+      <c r="E6" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="3"/>
@@ -1520,8 +1522,8 @@
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="11">
-        <v>0</v>
+      <c r="E7" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="3" t="s">
@@ -1541,8 +1543,8 @@
       <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="11">
-        <v>33</v>
+      <c r="E8" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="3" t="s">
@@ -1562,8 +1564,8 @@
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="11">
-        <v>5</v>
+      <c r="E9" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="3" t="s">
@@ -1581,8 +1583,8 @@
       <c r="D10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="11">
-        <v>0</v>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>105</v>
@@ -1599,8 +1601,8 @@
       <c r="D11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="11">
-        <v>1000</v>
+      <c r="E11" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>105</v>
@@ -1619,8 +1621,8 @@
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="11">
-        <v>2</v>
+      <c r="E12" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="3" t="s">
@@ -1638,8 +1640,8 @@
       <c r="D13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="11">
-        <v>-10</v>
+      <c r="E13" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>108</v>
@@ -1657,8 +1659,8 @@
       <c r="D14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="11">
-        <v>10</v>
+      <c r="E14" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>108</v>
@@ -1678,8 +1680,8 @@
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="11">
-        <v>2</v>
+      <c r="E15" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="3" t="s">
@@ -1699,8 +1701,8 @@
       <c r="D16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="11">
-        <v>120</v>
+      <c r="E16" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>118</v>
@@ -1719,8 +1721,8 @@
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="11">
-        <v>1E-4</v>
+      <c r="E17" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>120</v>
@@ -1728,7 +1730,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>123</v>
@@ -1739,8 +1741,8 @@
       <c r="D18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="11">
-        <v>10</v>
+      <c r="E18" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>125</v>
@@ -1748,7 +1750,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>123</v>
@@ -1759,8 +1761,8 @@
       <c r="D19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="11">
-        <v>3</v>
+      <c r="E19" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>125</v>
@@ -1768,7 +1770,7 @@
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>123</v>
@@ -1779,8 +1781,8 @@
       <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="11">
-        <v>20</v>
+      <c r="E20" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>125</v>
@@ -1797,7 +1799,7 @@
       <c r="D21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>131</v>
       </c>
       <c r="F21" s="1"/>
@@ -1818,7 +1820,7 @@
       <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>129</v>
       </c>
       <c r="F22" s="1"/>
@@ -1839,8 +1841,8 @@
       <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="11">
-        <v>365</v>
+      <c r="E23" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>65</v>
@@ -1860,8 +1862,8 @@
       <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="11">
-        <v>4</v>
+      <c r="E24" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
@@ -1879,8 +1881,8 @@
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="11">
-        <v>3</v>
+      <c r="E25" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="3" t="s">
@@ -1900,8 +1902,8 @@
       <c r="D26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="11">
-        <v>1</v>
+      <c r="E26" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="3" t="s">
@@ -1923,7 +1925,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,7 +1971,7 @@
       <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>83</v>
       </c>
       <c r="F2" s="1"/>
@@ -1990,7 +1992,7 @@
       <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="1"/>
@@ -2009,7 +2011,7 @@
       <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="1"/>
@@ -2028,7 +2030,7 @@
       <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="1"/>
@@ -2047,7 +2049,7 @@
       <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="1"/>
@@ -2066,7 +2068,7 @@
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="1"/>
@@ -2087,7 +2089,7 @@
       <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="10" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="1"/>
@@ -2108,7 +2110,7 @@
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="1"/>
@@ -2127,7 +2129,7 @@
       <c r="D10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2145,7 +2147,7 @@
       <c r="D11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2165,7 +2167,7 @@
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="1"/>
@@ -2184,7 +2186,7 @@
       <c r="D13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="9" t="s">
         <v>109</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2203,7 +2205,7 @@
       <c r="D14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2224,7 +2226,7 @@
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="1"/>
@@ -2245,7 +2247,7 @@
       <c r="D16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="9" t="s">
         <v>130</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2265,7 +2267,7 @@
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="9" t="s">
         <v>133</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2285,7 +2287,7 @@
       <c r="D18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2305,7 +2307,7 @@
       <c r="D19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2325,7 +2327,7 @@
       <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2343,7 +2345,7 @@
       <c r="D21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="9" t="s">
         <v>131</v>
       </c>
       <c r="F21" s="1"/>
@@ -2364,7 +2366,7 @@
       <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="9" t="s">
         <v>129</v>
       </c>
       <c r="F22" s="1"/>
@@ -2385,7 +2387,7 @@
       <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="9" t="s">
         <v>66</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2406,7 +2408,7 @@
       <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="9" t="s">
         <v>94</v>
       </c>
       <c r="F24" s="1"/>
@@ -2425,7 +2427,7 @@
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="1"/>
@@ -2446,7 +2448,7 @@
       <c r="D26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="1"/>
@@ -2467,6 +2469,7 @@
       <c r="G30" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2478,22 +2481,27 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2507,19 +2515,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="13">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>83</v>
       </c>
       <c r="F2" s="1"/>
@@ -2528,92 +2536,92 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="13">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="13">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="13">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="13">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2625,16 +2633,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2646,16 +2654,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2667,16 +2675,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2687,20 +2695,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2709,19 +2717,19 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2730,19 +2738,19 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="9" t="s">
         <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2751,19 +2759,19 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="9" t="s">
         <v>77</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2772,19 +2780,19 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="1"/>
@@ -2793,19 +2801,19 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="9" t="s">
         <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2814,19 +2822,19 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="1"/>
@@ -2834,17 +2842,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2856,19 +2864,19 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="9" t="s">
         <v>89</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2876,20 +2884,20 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2898,17 +2906,17 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="9" t="s">
         <v>131</v>
       </c>
       <c r="F21" s="1"/>
@@ -2917,19 +2925,19 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="9" t="s">
         <v>129</v>
       </c>
       <c r="F22" s="1"/>
@@ -2938,19 +2946,19 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>66</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2959,35 +2967,35 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>94</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2999,16 +3007,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3020,6 +3028,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>